--- a/biology/Zoologie/Crassicollum_musculare/Crassicollum_musculare.xlsx
+++ b/biology/Zoologie/Crassicollum_musculare/Crassicollum_musculare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crassicollum, Crassicollidae
 Crassicollum musculare est une espèce de ver plat, unique représentant du genre Crassicollum et de la famille des Crassicollidae, est une espèce de vers plats marins de l'ordre des Rhabdocoela (infra-ordre des Eukalyptorhynchia  et sous-ordre des Kalyptorhynchia).
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,12 +553,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les noms valides complets (avec auteur) de ces taxons sont :
-pour la famille :  Crassicollidae Dean, 1977[1],
-pour l'unique genre : Crassicollum Dean, 1977[1],
-pour l'unique espèce : Crassicollum musculare Dean, 1977[1].</t>
+pour la famille :  Crassicollidae Dean, 1977,
+pour l'unique genre : Crassicollum Dean, 1977,
+pour l'unique espèce : Crassicollum musculare Dean, 1977.</t>
         </is>
       </c>
     </row>
